--- a/T29_Data_bases/A29_01_enterprise/enterprise.xlsx
+++ b/T29_Data_bases/A29_01_enterprise/enterprise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Іванович</t>
   </si>
   <si>
-    <t>Петров</t>
-  </si>
-  <si>
     <t>Петро</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Ярославович</t>
+  </si>
+  <si>
+    <t>Петренко</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,13 +572,13 @@
         <v>1037777</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -595,13 +595,13 @@
         <v>1081337</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
